--- a/basketball.xlsx
+++ b/basketball.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="89">
   <si>
     <t>Cities</t>
   </si>
@@ -57,6 +57,240 @@
   </si>
   <si>
     <t>TeamName</t>
+  </si>
+  <si>
+    <t>Arenas</t>
+  </si>
+  <si>
+    <t>ArenaName</t>
+  </si>
+  <si>
+    <t>Players</t>
+  </si>
+  <si>
+    <t>PlayerID</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>PositionID</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Positions</t>
+  </si>
+  <si>
+    <t>PositionCode</t>
+  </si>
+  <si>
+    <t>Games</t>
+  </si>
+  <si>
+    <t>GameID</t>
+  </si>
+  <si>
+    <t>HomeTeamID</t>
+  </si>
+  <si>
+    <t>AwayTeamID</t>
+  </si>
+  <si>
+    <t>HomeTeamPoints</t>
+  </si>
+  <si>
+    <t>AwayTeamPoints</t>
+  </si>
+  <si>
+    <t>WinnerTeamID</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>Brooklyn</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>Philadephia</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
+    <t>Stevens</t>
+  </si>
+  <si>
+    <t>Kenny</t>
+  </si>
+  <si>
+    <t>Atkinson</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>Miller</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>Nurse</t>
+  </si>
+  <si>
+    <t>Brett</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Celtics</t>
+  </si>
+  <si>
+    <t>Nets</t>
+  </si>
+  <si>
+    <t>Knicks</t>
+  </si>
+  <si>
+    <t>Raptors</t>
+  </si>
+  <si>
+    <t>76ers</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>TD Garden</t>
+  </si>
+  <si>
+    <t>Barclays Centre</t>
+  </si>
+  <si>
+    <t>Maddison Square Gardens</t>
+  </si>
+  <si>
+    <t>Scotiabank Arena</t>
+  </si>
+  <si>
+    <t>Wells Fargo Centre</t>
+  </si>
+  <si>
+    <t>Joel</t>
+  </si>
+  <si>
+    <t>Embiid</t>
+  </si>
+  <si>
+    <t>Kyrie</t>
+  </si>
+  <si>
+    <t>Irving</t>
+  </si>
+  <si>
+    <t>Pascal</t>
+  </si>
+  <si>
+    <t>Siakim</t>
+  </si>
+  <si>
+    <t>Kemba</t>
+  </si>
+  <si>
+    <t>Walker</t>
+  </si>
+  <si>
+    <t>Mitchell</t>
+  </si>
+  <si>
+    <t>Robinson</t>
+  </si>
+  <si>
+    <t>Jayson</t>
+  </si>
+  <si>
+    <t>Tatum</t>
+  </si>
+  <si>
+    <t>Jarrett</t>
+  </si>
+  <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>Spencer</t>
+  </si>
+  <si>
+    <t>Dinwiddie</t>
+  </si>
+  <si>
+    <t>Marcus</t>
+  </si>
+  <si>
+    <t>Smart</t>
+  </si>
+  <si>
+    <t>Taj</t>
+  </si>
+  <si>
+    <t>Gibson</t>
+  </si>
+  <si>
+    <t>Julius</t>
+  </si>
+  <si>
+    <t>Randle</t>
+  </si>
+  <si>
+    <t>Serge</t>
+  </si>
+  <si>
+    <t>Ibaka</t>
+  </si>
+  <si>
+    <t>Rondae</t>
+  </si>
+  <si>
+    <t>Hollis-Jefferson</t>
+  </si>
+  <si>
+    <t>Ben</t>
+  </si>
+  <si>
+    <t>Simmons</t>
+  </si>
+  <si>
+    <t>Kyle</t>
+  </si>
+  <si>
+    <t>O'Quinn</t>
+  </si>
+  <si>
+    <t>EventDate</t>
   </si>
 </sst>
 </file>
@@ -92,8 +326,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,21 +609,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
     <col min="12" max="12" width="11.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" customWidth="1"/>
+    <col min="18" max="18" width="17" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -398,8 +642,11 @@
       <c r="K1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -429,6 +676,881 @@
       </c>
       <c r="L2" t="s">
         <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" t="s">
+        <v>88</v>
+      </c>
+      <c r="O12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>25</v>
+      </c>
+      <c r="R12" t="s">
+        <v>26</v>
+      </c>
+      <c r="S12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>21</v>
+      </c>
+      <c r="I13">
+        <v>2.13</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>25467250</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>43863</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <v>116</v>
+      </c>
+      <c r="R13">
+        <v>95</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>11</v>
+      </c>
+      <c r="I14">
+        <v>1.88</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>20099189</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14" s="1">
+        <v>43874</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <v>101</v>
+      </c>
+      <c r="R14">
+        <v>91</v>
+      </c>
+      <c r="S14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>43</v>
+      </c>
+      <c r="I15">
+        <v>2.06</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>1544951</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15" s="1">
+        <v>43870</v>
+      </c>
+      <c r="O15">
+        <v>4</v>
+      </c>
+      <c r="P15">
+        <v>2</v>
+      </c>
+      <c r="Q15">
+        <v>119</v>
+      </c>
+      <c r="R15">
+        <v>118</v>
+      </c>
+      <c r="S15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>8</v>
+      </c>
+      <c r="I16">
+        <v>1.83</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>12000000</v>
+      </c>
+      <c r="M16">
+        <v>4</v>
+      </c>
+      <c r="N16" s="1">
+        <v>43855</v>
+      </c>
+      <c r="O16">
+        <v>3</v>
+      </c>
+      <c r="P16">
+        <v>4</v>
+      </c>
+      <c r="Q16">
+        <v>112</v>
+      </c>
+      <c r="R16">
+        <v>118</v>
+      </c>
+      <c r="S16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>23</v>
+      </c>
+      <c r="I17">
+        <v>2.13</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1485440</v>
+      </c>
+      <c r="M17">
+        <v>5</v>
+      </c>
+      <c r="N17" s="1">
+        <v>43853</v>
+      </c>
+      <c r="O17">
+        <v>4</v>
+      </c>
+      <c r="P17">
+        <v>5</v>
+      </c>
+      <c r="Q17">
+        <v>107</v>
+      </c>
+      <c r="R17">
+        <v>95</v>
+      </c>
+      <c r="S17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>7830000</v>
+      </c>
+      <c r="M18">
+        <v>6</v>
+      </c>
+      <c r="N18" s="1">
+        <v>43840</v>
+      </c>
+      <c r="O18">
+        <v>5</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>109</v>
+      </c>
+      <c r="R18">
+        <v>98</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>31</v>
+      </c>
+      <c r="I19">
+        <v>2.11</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>2376840</v>
+      </c>
+      <c r="M19">
+        <v>7</v>
+      </c>
+      <c r="N19" s="1">
+        <v>43851</v>
+      </c>
+      <c r="O19">
+        <v>2</v>
+      </c>
+      <c r="P19">
+        <v>5</v>
+      </c>
+      <c r="Q19">
+        <v>111</v>
+      </c>
+      <c r="R19">
+        <v>117</v>
+      </c>
+      <c r="S19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>26</v>
+      </c>
+      <c r="I20">
+        <v>1.96</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>10605600</v>
+      </c>
+      <c r="M20">
+        <v>8</v>
+      </c>
+      <c r="N20" s="1">
+        <v>43849</v>
+      </c>
+      <c r="O20">
+        <v>3</v>
+      </c>
+      <c r="P20">
+        <v>5</v>
+      </c>
+      <c r="Q20">
+        <v>87</v>
+      </c>
+      <c r="R20">
+        <v>90</v>
+      </c>
+      <c r="S20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>36</v>
+      </c>
+      <c r="I21">
+        <v>1.91</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+      <c r="K21">
+        <v>12553571</v>
+      </c>
+      <c r="M21">
+        <v>9</v>
+      </c>
+      <c r="N21" s="1">
+        <v>43846</v>
+      </c>
+      <c r="O21">
+        <v>5</v>
+      </c>
+      <c r="P21">
+        <v>2</v>
+      </c>
+      <c r="Q21">
+        <v>117</v>
+      </c>
+      <c r="R21">
+        <v>106</v>
+      </c>
+      <c r="S21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>67</v>
+      </c>
+      <c r="I22">
+        <v>2.06</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>9000000</v>
+      </c>
+      <c r="M22">
+        <v>10</v>
+      </c>
+      <c r="N22" s="1">
+        <v>43857</v>
+      </c>
+      <c r="O22">
+        <v>3</v>
+      </c>
+      <c r="P22">
+        <v>2</v>
+      </c>
+      <c r="Q22">
+        <v>110</v>
+      </c>
+      <c r="R22">
+        <v>97</v>
+      </c>
+      <c r="S22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>30</v>
+      </c>
+      <c r="I23">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="J23">
+        <v>4</v>
+      </c>
+      <c r="K23">
+        <v>19000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>9</v>
+      </c>
+      <c r="I24">
+        <v>2.13</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>23271604</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="I25">
+        <v>1.98</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="K25">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>15</v>
+      </c>
+      <c r="E26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>25</v>
+      </c>
+      <c r="I26">
+        <v>2.08</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <v>8113930</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <v>9</v>
+      </c>
+      <c r="I27">
+        <v>2.06</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1620564</v>
       </c>
     </row>
   </sheetData>
